--- a/Variables Table.xlsx
+++ b/Variables Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/SustainableCBA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/workspace/MinMaj-Adaptation-Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9EF2E-472F-DF48-A5C9-3E7AD5D7450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5ECA7A-FB7E-014E-8C19-C7BE4644C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14880" xr2:uid="{7B7F5E0C-F9C7-844E-9815-9553E07F0AEF}"/>
   </bookViews>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D3BAB-ABA8-E648-AAD1-62FD2FD5AB31}">
-  <dimension ref="C3:F14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,147 +518,147 @@
     <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
         <v>28</v>
       </c>
     </row>
